--- a/ESCALA 2º Semestre 2025.xlsx
+++ b/ESCALA 2º Semestre 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Escala-de-Plant-o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30627164-29AC-4211-89B7-B4CDB66F058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B23D1-0349-46B6-97D3-413E08A66ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="10">
   <si>
     <t>ESCALA</t>
-  </si>
-  <si>
-    <t>DIURNO (7h às 19h )</t>
-  </si>
-  <si>
-    <t>NOTURNO (19h às 7h)</t>
   </si>
   <si>
     <t>Terça</t>
@@ -50,6 +44,12 @@
   </si>
   <si>
     <t>Segunda</t>
+  </si>
+  <si>
+    <t>DIURNO (10h às 18h )</t>
+  </si>
+  <si>
+    <t>NOTURNO (18h às 10h)</t>
   </si>
 </sst>
 </file>
@@ -248,6 +248,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,12 +263,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:S961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A186"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -494,16 +494,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -520,15 +520,15 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -542,11 +542,11 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="13">
         <v>45839</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -567,11 +567,11 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="13">
         <v>45840</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -592,11 +592,11 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="13">
         <v>45841</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -617,11 +617,11 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="13">
         <v>45842</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -642,11 +642,11 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="13">
         <v>45843</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -667,11 +667,11 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="13">
         <v>45844</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -692,11 +692,11 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="13">
         <v>45845</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -717,11 +717,11 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="13">
         <v>45846</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -742,11 +742,11 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="13">
         <v>45847</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -767,11 +767,11 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="13">
         <v>45848</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -792,11 +792,11 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="13">
         <v>45849</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -817,11 +817,11 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="13">
         <v>45850</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -842,11 +842,11 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="13">
         <v>45851</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -867,11 +867,11 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="13">
         <v>45852</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -892,11 +892,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="13">
         <v>45853</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -917,11 +917,11 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="13">
         <v>45854</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -942,11 +942,11 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="13">
         <v>45855</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -967,11 +967,11 @@
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="13">
         <v>45856</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -992,11 +992,11 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="13">
         <v>45857</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1017,11 +1017,11 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="A22" s="13">
         <v>45858</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1042,11 +1042,11 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="13">
         <v>45859</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1067,11 +1067,11 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="13">
         <v>45860</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1092,11 +1092,11 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="A25" s="13">
         <v>45861</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1117,11 +1117,11 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="A26" s="13">
         <v>45862</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1142,11 +1142,11 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="A27" s="13">
         <v>45863</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -1167,11 +1167,11 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="A28" s="13">
         <v>45864</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1192,11 +1192,11 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="A29" s="13">
         <v>45865</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1217,11 +1217,11 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="A30" s="13">
         <v>45866</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1242,11 +1242,11 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
+      <c r="A31" s="13">
         <v>45867</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1267,11 +1267,11 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
+      <c r="A32" s="13">
         <v>45868</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1292,11 +1292,11 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+      <c r="A33" s="13">
         <v>45869</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1317,11 +1317,11 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
+      <c r="A34" s="14">
         <v>45870</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -1342,11 +1342,11 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
+      <c r="A35" s="14">
         <v>45871</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1367,11 +1367,11 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+      <c r="A36" s="14">
         <v>45872</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1392,11 +1392,11 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
+      <c r="A37" s="14">
         <v>45873</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1417,11 +1417,11 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
+      <c r="A38" s="14">
         <v>45874</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1442,11 +1442,11 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19">
+      <c r="A39" s="14">
         <v>45875</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1467,11 +1467,11 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
+      <c r="A40" s="14">
         <v>45876</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1492,11 +1492,11 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
+      <c r="A41" s="14">
         <v>45877</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -1517,11 +1517,11 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
+      <c r="A42" s="14">
         <v>45878</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1542,11 +1542,11 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19">
+      <c r="A43" s="14">
         <v>45879</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1567,11 +1567,11 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
+      <c r="A44" s="14">
         <v>45880</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1592,11 +1592,11 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
+      <c r="A45" s="14">
         <v>45881</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -1617,11 +1617,11 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
+      <c r="A46" s="14">
         <v>45882</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1642,11 +1642,11 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19">
+      <c r="A47" s="14">
         <v>45883</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1667,11 +1667,11 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
+      <c r="A48" s="14">
         <v>45884</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
@@ -1692,11 +1692,11 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19">
+      <c r="A49" s="14">
         <v>45885</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1717,11 +1717,11 @@
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19">
+      <c r="A50" s="14">
         <v>45886</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1742,11 +1742,11 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19">
+      <c r="A51" s="14">
         <v>45887</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1767,11 +1767,11 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19">
+      <c r="A52" s="14">
         <v>45888</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1792,11 +1792,11 @@
       <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19">
+      <c r="A53" s="14">
         <v>45889</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -1817,11 +1817,11 @@
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19">
+      <c r="A54" s="14">
         <v>45890</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -1842,11 +1842,11 @@
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19">
+      <c r="A55" s="14">
         <v>45891</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9"/>
@@ -1867,11 +1867,11 @@
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
+      <c r="A56" s="14">
         <v>45892</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1892,11 +1892,11 @@
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19">
+      <c r="A57" s="14">
         <v>45893</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1917,11 +1917,11 @@
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19">
+      <c r="A58" s="14">
         <v>45894</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -1942,11 +1942,11 @@
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19">
+      <c r="A59" s="14">
         <v>45895</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -1967,11 +1967,11 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19">
+      <c r="A60" s="14">
         <v>45896</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -1992,11 +1992,11 @@
       <c r="S60" s="1"/>
     </row>
     <row r="61" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19">
+      <c r="A61" s="14">
         <v>45897</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2017,11 +2017,11 @@
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19">
+      <c r="A62" s="14">
         <v>45898</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9"/>
@@ -2042,11 +2042,11 @@
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19">
+      <c r="A63" s="14">
         <v>45899</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2067,11 +2067,11 @@
       <c r="S63" s="1"/>
     </row>
     <row r="64" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19">
+      <c r="A64" s="14">
         <v>45900</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2092,11 +2092,11 @@
       <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
+      <c r="A65" s="13">
         <v>45901</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2117,11 +2117,11 @@
       <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
+      <c r="A66" s="13">
         <v>45902</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2142,11 +2142,11 @@
       <c r="S66" s="1"/>
     </row>
     <row r="67" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
+      <c r="A67" s="13">
         <v>45903</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2167,11 +2167,11 @@
       <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18">
+      <c r="A68" s="13">
         <v>45904</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2192,11 +2192,11 @@
       <c r="S68" s="1"/>
     </row>
     <row r="69" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18">
+      <c r="A69" s="13">
         <v>45905</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="10"/>
@@ -2217,11 +2217,11 @@
       <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
+      <c r="A70" s="13">
         <v>45906</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2242,11 +2242,11 @@
       <c r="S70" s="1"/>
     </row>
     <row r="71" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
+      <c r="A71" s="13">
         <v>45907</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2267,11 +2267,11 @@
       <c r="S71" s="1"/>
     </row>
     <row r="72" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18">
+      <c r="A72" s="13">
         <v>45908</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2292,11 +2292,11 @@
       <c r="S72" s="1"/>
     </row>
     <row r="73" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18">
+      <c r="A73" s="13">
         <v>45909</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2317,11 +2317,11 @@
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18">
+      <c r="A74" s="13">
         <v>45910</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2342,11 +2342,11 @@
       <c r="S74" s="1"/>
     </row>
     <row r="75" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18">
+      <c r="A75" s="13">
         <v>45911</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2367,11 +2367,11 @@
       <c r="S75" s="1"/>
     </row>
     <row r="76" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18">
+      <c r="A76" s="13">
         <v>45912</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="10"/>
@@ -2392,11 +2392,11 @@
       <c r="S76" s="1"/>
     </row>
     <row r="77" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
+      <c r="A77" s="13">
         <v>45913</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -2417,11 +2417,11 @@
       <c r="S77" s="1"/>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
+      <c r="A78" s="13">
         <v>45914</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -2442,11 +2442,11 @@
       <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
+      <c r="A79" s="13">
         <v>45915</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2467,11 +2467,11 @@
       <c r="S79" s="1"/>
     </row>
     <row r="80" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18">
+      <c r="A80" s="13">
         <v>45916</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2492,11 +2492,11 @@
       <c r="S80" s="1"/>
     </row>
     <row r="81" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
+      <c r="A81" s="13">
         <v>45917</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2517,11 +2517,11 @@
       <c r="S81" s="1"/>
     </row>
     <row r="82" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18">
+      <c r="A82" s="13">
         <v>45918</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2542,11 +2542,11 @@
       <c r="S82" s="1"/>
     </row>
     <row r="83" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
+      <c r="A83" s="13">
         <v>45919</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="10"/>
@@ -2567,11 +2567,11 @@
       <c r="S83" s="1"/>
     </row>
     <row r="84" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18">
+      <c r="A84" s="13">
         <v>45920</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -2592,11 +2592,11 @@
       <c r="S84" s="1"/>
     </row>
     <row r="85" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18">
+      <c r="A85" s="13">
         <v>45921</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -2617,11 +2617,11 @@
       <c r="S85" s="1"/>
     </row>
     <row r="86" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18">
+      <c r="A86" s="13">
         <v>45922</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2642,11 +2642,11 @@
       <c r="S86" s="1"/>
     </row>
     <row r="87" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18">
+      <c r="A87" s="13">
         <v>45923</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2667,11 +2667,11 @@
       <c r="S87" s="1"/>
     </row>
     <row r="88" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18">
+      <c r="A88" s="13">
         <v>45924</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2692,11 +2692,11 @@
       <c r="S88" s="1"/>
     </row>
     <row r="89" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18">
+      <c r="A89" s="13">
         <v>45925</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2717,11 +2717,11 @@
       <c r="S89" s="1"/>
     </row>
     <row r="90" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18">
+      <c r="A90" s="13">
         <v>45926</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="10"/>
@@ -2742,11 +2742,11 @@
       <c r="S90" s="1"/>
     </row>
     <row r="91" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18">
+      <c r="A91" s="13">
         <v>45927</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -2767,11 +2767,11 @@
       <c r="S91" s="1"/>
     </row>
     <row r="92" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18">
+      <c r="A92" s="13">
         <v>45928</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -2792,11 +2792,11 @@
       <c r="S92" s="1"/>
     </row>
     <row r="93" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="18">
+      <c r="A93" s="13">
         <v>45929</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2817,11 +2817,11 @@
       <c r="S93" s="1"/>
     </row>
     <row r="94" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="18">
+      <c r="A94" s="13">
         <v>45930</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2842,11 +2842,11 @@
       <c r="S94" s="1"/>
     </row>
     <row r="95" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19">
+      <c r="A95" s="14">
         <v>45931</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -2867,11 +2867,11 @@
       <c r="S95" s="1"/>
     </row>
     <row r="96" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19">
+      <c r="A96" s="14">
         <v>45932</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2892,11 +2892,11 @@
       <c r="S96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19">
+      <c r="A97" s="14">
         <v>45933</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="9"/>
@@ -2907,11 +2907,11 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19">
+      <c r="A98" s="14">
         <v>45934</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -2922,11 +2922,11 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19">
+      <c r="A99" s="14">
         <v>45935</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2937,11 +2937,11 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19">
+      <c r="A100" s="14">
         <v>45936</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -2952,11 +2952,11 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="19">
+      <c r="A101" s="14">
         <v>45937</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -2967,11 +2967,11 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19">
+      <c r="A102" s="14">
         <v>45938</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -2982,11 +2982,11 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19">
+      <c r="A103" s="14">
         <v>45939</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2997,11 +2997,11 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19">
+      <c r="A104" s="14">
         <v>45940</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="9"/>
@@ -3012,11 +3012,11 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19">
+      <c r="A105" s="14">
         <v>45941</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -3027,11 +3027,11 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="19">
+      <c r="A106" s="14">
         <v>45942</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -3042,11 +3042,11 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="19">
+      <c r="A107" s="14">
         <v>45943</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -3057,11 +3057,11 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="19">
+      <c r="A108" s="14">
         <v>45944</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -3072,11 +3072,11 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="19">
+      <c r="A109" s="14">
         <v>45945</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -3087,11 +3087,11 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="19">
+      <c r="A110" s="14">
         <v>45946</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -3102,11 +3102,11 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="19">
+      <c r="A111" s="14">
         <v>45947</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="9"/>
@@ -3117,11 +3117,11 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="19">
+      <c r="A112" s="14">
         <v>45948</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -3132,11 +3132,11 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="19">
+      <c r="A113" s="14">
         <v>45949</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -3147,11 +3147,11 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="19">
+      <c r="A114" s="14">
         <v>45950</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -3162,11 +3162,11 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="19">
+      <c r="A115" s="14">
         <v>45951</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -3177,11 +3177,11 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="19">
+      <c r="A116" s="14">
         <v>45952</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -3192,11 +3192,11 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="19">
+      <c r="A117" s="14">
         <v>45953</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -3207,11 +3207,11 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="19">
+      <c r="A118" s="14">
         <v>45954</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="9"/>
@@ -3222,11 +3222,11 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="19">
+      <c r="A119" s="14">
         <v>45955</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -3237,11 +3237,11 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="19">
+      <c r="A120" s="14">
         <v>45956</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -3252,11 +3252,11 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="19">
+      <c r="A121" s="14">
         <v>45957</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -3267,11 +3267,11 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="19">
+      <c r="A122" s="14">
         <v>45958</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -3282,11 +3282,11 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="19">
+      <c r="A123" s="14">
         <v>45959</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -3297,11 +3297,11 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="19">
+      <c r="A124" s="14">
         <v>45960</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -3312,11 +3312,11 @@
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="18">
+      <c r="A125" s="13">
         <v>45961</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="10"/>
@@ -3327,11 +3327,11 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="18">
+      <c r="A126" s="13">
         <v>45962</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="10"/>
@@ -3342,11 +3342,11 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="18">
+      <c r="A127" s="13">
         <v>45963</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="11"/>
@@ -3357,11 +3357,11 @@
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="18">
+      <c r="A128" s="13">
         <v>45964</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -3372,11 +3372,11 @@
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="18">
+      <c r="A129" s="13">
         <v>45965</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="4"/>
@@ -3387,11 +3387,11 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="18">
+      <c r="A130" s="13">
         <v>45966</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -3402,11 +3402,11 @@
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="18">
+      <c r="A131" s="13">
         <v>45967</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="4"/>
@@ -3417,11 +3417,11 @@
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="18">
+      <c r="A132" s="13">
         <v>45968</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="10"/>
@@ -3442,11 +3442,11 @@
       <c r="S132" s="1"/>
     </row>
     <row r="133" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="18">
+      <c r="A133" s="13">
         <v>45969</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -3467,11 +3467,11 @@
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="18">
+      <c r="A134" s="13">
         <v>45970</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -3492,11 +3492,11 @@
       <c r="S134" s="1"/>
     </row>
     <row r="135" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="18">
+      <c r="A135" s="13">
         <v>45971</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C135" s="12"/>
       <c r="D135" s="4"/>
@@ -3517,11 +3517,11 @@
       <c r="S135" s="1"/>
     </row>
     <row r="136" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="18">
+      <c r="A136" s="13">
         <v>45972</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="12"/>
@@ -3542,11 +3542,11 @@
       <c r="S136" s="1"/>
     </row>
     <row r="137" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="18">
+      <c r="A137" s="13">
         <v>45973</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -3567,11 +3567,11 @@
       <c r="S137" s="1"/>
     </row>
     <row r="138" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="18">
+      <c r="A138" s="13">
         <v>45974</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -3592,11 +3592,11 @@
       <c r="S138" s="1"/>
     </row>
     <row r="139" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="18">
+      <c r="A139" s="13">
         <v>45975</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="10"/>
@@ -3617,11 +3617,11 @@
       <c r="S139" s="1"/>
     </row>
     <row r="140" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="18">
+      <c r="A140" s="13">
         <v>45976</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="10"/>
@@ -3642,11 +3642,11 @@
       <c r="S140" s="1"/>
     </row>
     <row r="141" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="18">
+      <c r="A141" s="13">
         <v>45977</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
@@ -3667,11 +3667,11 @@
       <c r="S141" s="1"/>
     </row>
     <row r="142" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="18">
+      <c r="A142" s="13">
         <v>45978</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -3692,11 +3692,11 @@
       <c r="S142" s="1"/>
     </row>
     <row r="143" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18">
+      <c r="A143" s="13">
         <v>45979</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -3717,11 +3717,11 @@
       <c r="S143" s="1"/>
     </row>
     <row r="144" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="18">
+      <c r="A144" s="13">
         <v>45980</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -3742,11 +3742,11 @@
       <c r="S144" s="1"/>
     </row>
     <row r="145" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="18">
+      <c r="A145" s="13">
         <v>45981</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -3767,11 +3767,11 @@
       <c r="S145" s="1"/>
     </row>
     <row r="146" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="18">
+      <c r="A146" s="13">
         <v>45982</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="10"/>
@@ -3792,11 +3792,11 @@
       <c r="S146" s="1"/>
     </row>
     <row r="147" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="18">
+      <c r="A147" s="13">
         <v>45983</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
@@ -3817,11 +3817,11 @@
       <c r="S147" s="1"/>
     </row>
     <row r="148" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="18">
+      <c r="A148" s="13">
         <v>45984</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -3842,11 +3842,11 @@
       <c r="S148" s="1"/>
     </row>
     <row r="149" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="18">
+      <c r="A149" s="13">
         <v>45985</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -3867,11 +3867,11 @@
       <c r="S149" s="1"/>
     </row>
     <row r="150" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="18">
+      <c r="A150" s="13">
         <v>45986</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="4"/>
@@ -3892,11 +3892,11 @@
       <c r="S150" s="1"/>
     </row>
     <row r="151" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="18">
+      <c r="A151" s="13">
         <v>45987</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -3917,11 +3917,11 @@
       <c r="S151" s="1"/>
     </row>
     <row r="152" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="18">
+      <c r="A152" s="13">
         <v>45988</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -3942,11 +3942,11 @@
       <c r="S152" s="1"/>
     </row>
     <row r="153" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="18">
+      <c r="A153" s="13">
         <v>45989</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="10"/>
@@ -3967,11 +3967,11 @@
       <c r="S153" s="1"/>
     </row>
     <row r="154" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="18">
+      <c r="A154" s="13">
         <v>45990</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -3992,11 +3992,11 @@
       <c r="S154" s="1"/>
     </row>
     <row r="155" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="18">
+      <c r="A155" s="13">
         <v>45991</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="11"/>
@@ -4017,11 +4017,11 @@
       <c r="S155" s="1"/>
     </row>
     <row r="156" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="19">
+      <c r="A156" s="14">
         <v>45992</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -4042,11 +4042,11 @@
       <c r="S156" s="1"/>
     </row>
     <row r="157" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="19">
+      <c r="A157" s="14">
         <v>45993</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -4067,11 +4067,11 @@
       <c r="S157" s="1"/>
     </row>
     <row r="158" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="19">
+      <c r="A158" s="14">
         <v>45994</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -4092,11 +4092,11 @@
       <c r="S158" s="1"/>
     </row>
     <row r="159" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="19">
+      <c r="A159" s="14">
         <v>45995</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -4117,11 +4117,11 @@
       <c r="S159" s="1"/>
     </row>
     <row r="160" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="19">
+      <c r="A160" s="14">
         <v>45996</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C160" s="8"/>
       <c r="D160" s="9"/>
@@ -4142,11 +4142,11 @@
       <c r="S160" s="1"/>
     </row>
     <row r="161" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="19">
+      <c r="A161" s="14">
         <v>45997</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -4167,11 +4167,11 @@
       <c r="S161" s="1"/>
     </row>
     <row r="162" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="19">
+      <c r="A162" s="14">
         <v>45998</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -4192,11 +4192,11 @@
       <c r="S162" s="1"/>
     </row>
     <row r="163" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="19">
+      <c r="A163" s="14">
         <v>45999</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -4217,11 +4217,11 @@
       <c r="S163" s="1"/>
     </row>
     <row r="164" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="19">
+      <c r="A164" s="14">
         <v>46000</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -4242,11 +4242,11 @@
       <c r="S164" s="1"/>
     </row>
     <row r="165" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="19">
+      <c r="A165" s="14">
         <v>46001</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -4267,11 +4267,11 @@
       <c r="S165" s="1"/>
     </row>
     <row r="166" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="19">
+      <c r="A166" s="14">
         <v>46002</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -4292,11 +4292,11 @@
       <c r="S166" s="1"/>
     </row>
     <row r="167" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="19">
+      <c r="A167" s="14">
         <v>46003</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="9"/>
@@ -4317,11 +4317,11 @@
       <c r="S167" s="1"/>
     </row>
     <row r="168" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="19">
+      <c r="A168" s="14">
         <v>46004</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -4342,11 +4342,11 @@
       <c r="S168" s="1"/>
     </row>
     <row r="169" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="19">
+      <c r="A169" s="14">
         <v>46005</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -4367,11 +4367,11 @@
       <c r="S169" s="1"/>
     </row>
     <row r="170" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="19">
+      <c r="A170" s="14">
         <v>46006</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -4392,11 +4392,11 @@
       <c r="S170" s="1"/>
     </row>
     <row r="171" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="19">
+      <c r="A171" s="14">
         <v>46007</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -4417,11 +4417,11 @@
       <c r="S171" s="1"/>
     </row>
     <row r="172" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="19">
+      <c r="A172" s="14">
         <v>46008</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -4442,11 +4442,11 @@
       <c r="S172" s="1"/>
     </row>
     <row r="173" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="19">
+      <c r="A173" s="14">
         <v>46009</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -4467,11 +4467,11 @@
       <c r="S173" s="1"/>
     </row>
     <row r="174" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="19">
+      <c r="A174" s="14">
         <v>46010</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="9"/>
@@ -4492,11 +4492,11 @@
       <c r="S174" s="1"/>
     </row>
     <row r="175" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="19">
+      <c r="A175" s="14">
         <v>46011</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -4517,11 +4517,11 @@
       <c r="S175" s="1"/>
     </row>
     <row r="176" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="19">
+      <c r="A176" s="14">
         <v>46012</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -4542,11 +4542,11 @@
       <c r="S176" s="1"/>
     </row>
     <row r="177" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="19">
+      <c r="A177" s="14">
         <v>46013</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -4567,11 +4567,11 @@
       <c r="S177" s="1"/>
     </row>
     <row r="178" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="19">
+      <c r="A178" s="14">
         <v>46014</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -4592,11 +4592,11 @@
       <c r="S178" s="1"/>
     </row>
     <row r="179" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="19">
+      <c r="A179" s="14">
         <v>46015</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -4617,11 +4617,11 @@
       <c r="S179" s="1"/>
     </row>
     <row r="180" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="19">
+      <c r="A180" s="14">
         <v>46016</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -4642,11 +4642,11 @@
       <c r="S180" s="1"/>
     </row>
     <row r="181" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="19">
+      <c r="A181" s="14">
         <v>46017</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="9"/>
@@ -4667,11 +4667,11 @@
       <c r="S181" s="1"/>
     </row>
     <row r="182" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="19">
+      <c r="A182" s="14">
         <v>46018</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -4692,11 +4692,11 @@
       <c r="S182" s="1"/>
     </row>
     <row r="183" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="19">
+      <c r="A183" s="14">
         <v>46019</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4717,11 +4717,11 @@
       <c r="S183" s="1"/>
     </row>
     <row r="184" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="19">
+      <c r="A184" s="14">
         <v>46020</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
@@ -4742,11 +4742,11 @@
       <c r="S184" s="1"/>
     </row>
     <row r="185" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="19">
+      <c r="A185" s="14">
         <v>46021</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
@@ -4767,11 +4767,11 @@
       <c r="S185" s="1"/>
     </row>
     <row r="186" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="19">
+      <c r="A186" s="14">
         <v>46022</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
